--- a/public/excel/cuentas_corrientes.xlsx
+++ b/public/excel/cuentas_corrientes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Cliente</t>
   </si>
@@ -37,7 +37,10 @@
     <t>5</t>
   </si>
   <si>
-    <t>CONSUMIDOR FINAL</t>
+    <t>CONSUMIDOR FINAL 312 1231231231231 123 123 123 123 123 12312</t>
+  </si>
+  <si>
+    <t>DASDASD</t>
   </si>
   <si>
     <t>EQUINOCCIO TECHNOLOGY</t>
@@ -46,7 +49,22 @@
     <t>FET YAMIL DAHER</t>
   </si>
   <si>
+    <t>MARTIN SOFRANO</t>
+  </si>
+  <si>
     <t>MORENO LUCAS OMAR</t>
+  </si>
+  <si>
+    <t>POGBA NICOLAS</t>
+  </si>
+  <si>
+    <t>PROBANDO</t>
+  </si>
+  <si>
+    <t>PROBANDO CLIENTE</t>
+  </si>
+  <si>
+    <t>TESTING</t>
   </si>
 </sst>
 </file>
@@ -428,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D14"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
@@ -469,7 +487,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="C3" s="2">
         <v>44881.710066458334</v>
@@ -511,10 +529,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>122500</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>44852.9755089699</v>
+        <v>44920.968406053245</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -525,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>1400</v>
+        <v>130500</v>
       </c>
       <c r="C7" s="2">
-        <v>44854.66529210648</v>
+        <v>44852.9755089699</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -539,12 +557,96 @@
         <v>11</v>
       </c>
       <c r="B8">
+        <v>3400</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44854.66529210648</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44910.469931134256</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
         <v>12800</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C10" s="2">
         <v>44862.518285439815</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>-3000</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44914.83831673611</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44916.983680798614</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44916.987202442135</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>-7000</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45011.579786689814</v>
+      </c>
+      <c r="D14" t="s">
         <v>5</v>
       </c>
     </row>

--- a/public/excel/cuentas_corrientes.xlsx
+++ b/public/excel/cuentas_corrientes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Cliente</t>
   </si>
@@ -25,46 +25,16 @@
     <t>Activa</t>
   </si>
   <si>
-    <t>2</t>
+    <t>EQUINOCCIO TECHNOLOGY</t>
   </si>
   <si>
     <t>SI</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>CONSUMIDOR FINAL 312 1231231231231 123 123 123 123 123 12312</t>
-  </si>
-  <si>
-    <t>DASDASD</t>
-  </si>
-  <si>
-    <t>EQUINOCCIO TECHNOLOGY</t>
-  </si>
-  <si>
-    <t>FET YAMIL DAHER</t>
-  </si>
-  <si>
-    <t>MARTIN SOFRANO</t>
-  </si>
-  <si>
-    <t>MORENO LUCAS OMAR</t>
-  </si>
-  <si>
-    <t>POGBA NICOLAS</t>
-  </si>
-  <si>
-    <t>PROBANDO</t>
-  </si>
-  <si>
-    <t>PROBANDO CLIENTE</t>
-  </si>
-  <si>
-    <t>TESTING</t>
+    <t>PRUEBA</t>
+  </si>
+  <si>
+    <t>ROMER MARCELO</t>
   </si>
 </sst>
 </file>
@@ -446,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
@@ -473,10 +443,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>7600</v>
       </c>
       <c r="C2" s="2">
-        <v>44880.942045937496</v>
+        <v>44880.80599005787</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -487,10 +457,10 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="C3" s="2">
-        <v>44881.710066458334</v>
+        <v>44880.806262025464</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -501,152 +471,12 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-1000</v>
+        <v>12000</v>
       </c>
       <c r="C4" s="2">
-        <v>44883.8511505787</v>
+        <v>44882.68643324074</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>16000</v>
-      </c>
-      <c r="C5" s="2">
-        <v>44878.04088918981</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>44920.968406053245</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>130500</v>
-      </c>
-      <c r="C7" s="2">
-        <v>44852.9755089699</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>3400</v>
-      </c>
-      <c r="C8" s="2">
-        <v>44854.66529210648</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>44910.469931134256</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>12800</v>
-      </c>
-      <c r="C10" s="2">
-        <v>44862.518285439815</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>-3000</v>
-      </c>
-      <c r="C11" s="2">
-        <v>44914.83831673611</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>44916.983680798614</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>44916.987202442135</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>-7000</v>
-      </c>
-      <c r="C14" s="2">
-        <v>45011.579786689814</v>
-      </c>
-      <c r="D14" t="s">
         <v>5</v>
       </c>
     </row>
